--- a/lookup_full.xlsx
+++ b/lookup_full.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTG\Bao gia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AB9C8-D918-4A15-94DE-2EABFBC82A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2751B59-BAE1-47D9-8ADE-1643D47E5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="6195" windowWidth="15375" windowHeight="9240" xr2:uid="{DB710158-D6D5-4C09-A916-EA083BC72CD7}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{DB710158-D6D5-4C09-A916-EA083BC72CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
-  <si>
-    <t>unit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
   <si>
     <t>Cái</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Đầu phát</t>
   </si>
   <si>
-    <t>Cai</t>
-  </si>
-  <si>
     <t>Ket nuoc dong co</t>
   </si>
   <si>
     <t>Két nước động cơ</t>
   </si>
   <si>
-    <t>Bo</t>
-  </si>
-  <si>
     <t>Bộ</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Đá mài cao su</t>
   </si>
   <si>
-    <t>Vien</t>
-  </si>
-  <si>
     <t>Viên</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>Dây gút</t>
   </si>
   <si>
-    <t>Soi</t>
-  </si>
-  <si>
     <t>Sợi</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Decal cảnh báo</t>
   </si>
   <si>
-    <t>Tam</t>
-  </si>
-  <si>
     <t>Tấm</t>
   </si>
   <si>
@@ -246,9 +231,6 @@
     <t>Băng keo điện</t>
   </si>
   <si>
-    <t>Cuon</t>
-  </si>
-  <si>
     <t>Cuộn</t>
   </si>
   <si>
@@ -294,10 +276,232 @@
     <t>Mét</t>
   </si>
   <si>
-    <t>Met</t>
-  </si>
-  <si>
     <t>Dây cáp điện</t>
+  </si>
+  <si>
+    <t>dong co</t>
+  </si>
+  <si>
+    <t>động cơ</t>
+  </si>
+  <si>
+    <t>Cuon day sac</t>
+  </si>
+  <si>
+    <t>Cuộn dây sạc</t>
+  </si>
+  <si>
+    <t>dung cho</t>
+  </si>
+  <si>
+    <t>dùng cho</t>
+  </si>
+  <si>
+    <t>Bac dan</t>
+  </si>
+  <si>
+    <t>Bạc đạn</t>
+  </si>
+  <si>
+    <t>an toan</t>
+  </si>
+  <si>
+    <t>an toàn</t>
+  </si>
+  <si>
+    <t>Bao che ngoai</t>
+  </si>
+  <si>
+    <t>Bao che ngoài</t>
+  </si>
+  <si>
+    <t>Bo ket noi</t>
+  </si>
+  <si>
+    <t>Bộ kết nối</t>
+  </si>
+  <si>
+    <t>Bo phu kien kem theo</t>
+  </si>
+  <si>
+    <t>Bộ phụ kiện kèm theo</t>
+  </si>
+  <si>
+    <t>Bo phat dien kich tu</t>
+  </si>
+  <si>
+    <t>Bộ phát điện kích từ</t>
+  </si>
+  <si>
+    <t>Bo mat bich</t>
+  </si>
+  <si>
+    <t>Bộ mặt bích</t>
+  </si>
+  <si>
+    <t>mat dia</t>
+  </si>
+  <si>
+    <t>mặt đĩa</t>
+  </si>
+  <si>
+    <t>Bu long an toan</t>
+  </si>
+  <si>
+    <t>Bu lông an toàn</t>
+  </si>
+  <si>
+    <t>Bu long chup ngoai</t>
+  </si>
+  <si>
+    <t>Bu lông chụp ngoài</t>
+  </si>
+  <si>
+    <t>Canh quat</t>
+  </si>
+  <si>
+    <t>Cánh quạt</t>
+  </si>
+  <si>
+    <t>giai nhiet</t>
+  </si>
+  <si>
+    <t>giải nhiệt</t>
+  </si>
+  <si>
+    <t>Choi than</t>
+  </si>
+  <si>
+    <t>Chổi than</t>
+  </si>
+  <si>
+    <t>Coc ra day</t>
+  </si>
+  <si>
+    <t>Cọc ra dây</t>
+  </si>
+  <si>
+    <t>Cuon bu</t>
+  </si>
+  <si>
+    <t>Cuộn bù</t>
+  </si>
+  <si>
+    <t>De Stator</t>
+  </si>
+  <si>
+    <t>Đế Stator</t>
+  </si>
+  <si>
+    <t>Luoi che ngoai</t>
+  </si>
+  <si>
+    <t>Lưới che ngoài</t>
+  </si>
+  <si>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t>Mạch</t>
+  </si>
+  <si>
+    <t>Mam diode</t>
+  </si>
+  <si>
+    <t>Mâm diode</t>
+  </si>
+  <si>
+    <t>Mat bich</t>
+  </si>
+  <si>
+    <t>Mặt bích</t>
+  </si>
+  <si>
+    <t>hop so</t>
+  </si>
+  <si>
+    <t>hộp số</t>
+  </si>
+  <si>
+    <t>may thuy</t>
+  </si>
+  <si>
+    <t>máy thủy</t>
+  </si>
+  <si>
+    <t>truoc</t>
+  </si>
+  <si>
+    <t>trước</t>
+  </si>
+  <si>
+    <t>Tu dien</t>
+  </si>
+  <si>
+    <t>Tụ điện</t>
+  </si>
+  <si>
+    <t>co dinh</t>
+  </si>
+  <si>
+    <t>cố định</t>
+  </si>
+  <si>
+    <t>Vi che ngoai</t>
+  </si>
+  <si>
+    <t>Vỉ che ngoài</t>
+  </si>
+  <si>
+    <t>nhan dang may</t>
+  </si>
+  <si>
+    <t>nhận dạng máy</t>
+  </si>
+  <si>
+    <t>Que han sat</t>
+  </si>
+  <si>
+    <t>Que hàn sắt</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Day cau</t>
+  </si>
+  <si>
+    <t>Dây câu</t>
+  </si>
+  <si>
+    <t>Kem mo phe</t>
+  </si>
+  <si>
+    <t>Kềm mở phe</t>
+  </si>
+  <si>
+    <t>Thuoc day</t>
+  </si>
+  <si>
+    <t>Thước dây</t>
+  </si>
+  <si>
+    <t>Loi rotor</t>
+  </si>
+  <si>
+    <t>Lõi rotor</t>
+  </si>
+  <si>
+    <t>Gia do</t>
+  </si>
+  <si>
+    <t>Giá đỡ</t>
+  </si>
+  <si>
+    <t>Kep choi than</t>
+  </si>
+  <si>
+    <t>Kẹp chổi than</t>
   </si>
 </sst>
 </file>
@@ -341,25 +545,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -677,544 +869,1040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC340861-806D-4F42-8622-1E0C2E3DDD97}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
-        <v>51</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>85</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
-        <v>45</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>102</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>102</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>102</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>102</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>102</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>102</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>102</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>102</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>102</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>102</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>102</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>102</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>102</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>102</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>102</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>102</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>102</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>102</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>102</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C64" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D64" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
         <v>75</v>
       </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>200</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>200</v>
+      </c>
+      <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C72" t="s">
         <v>70</v>
       </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
+      <c r="D72" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{AC340861-806D-4F42-8622-1E0C2E3DDD97}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
